--- a/Matricula AGO-DIC 2024 (678).xlsx
+++ b/Matricula AGO-DIC 2024 (678).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SERVICIOS ESCOLARES\Desktop\PERIODOS ESCOLARES\AGO-DIC 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emman\OneDrive\Escritorio\PROYECTO-TEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A83602C-0FEB-4385-807C-DD6D4D3FE7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFFF745-E03E-40DF-BC8E-4B55DAFD4195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2435,20 +2444,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:J679"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A654" workbookViewId="0">
-      <selection activeCell="B625" sqref="B625:B678"/>
+    <sheetView tabSelected="1" topLeftCell="A364" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H444" sqref="H444"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2470,7 +2478,7 @@
       <c r="H2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f>A2+1</f>
         <v>2</v>
@@ -2493,7 +2501,7 @@
       <c r="H3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -2516,7 +2524,7 @@
       <c r="H4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2539,7 +2547,7 @@
       <c r="H5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2562,7 +2570,7 @@
       <c r="H6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2585,7 +2593,7 @@
       <c r="H7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2608,7 +2616,7 @@
       <c r="H8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2631,7 +2639,7 @@
       <c r="H9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2654,7 +2662,7 @@
       <c r="H10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2677,7 +2685,7 @@
       <c r="H11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2700,7 +2708,7 @@
       <c r="H12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2723,7 +2731,7 @@
       <c r="H13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2746,7 +2754,7 @@
       <c r="H14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2769,7 +2777,7 @@
       <c r="H15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2792,7 +2800,7 @@
       <c r="H16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2815,7 +2823,7 @@
       <c r="H17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2838,7 +2846,7 @@
       <c r="H18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2861,7 +2869,7 @@
       <c r="H19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2884,7 +2892,7 @@
       <c r="H20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2907,7 +2915,7 @@
       <c r="H21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2930,7 +2938,7 @@
       <c r="H22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2953,7 +2961,7 @@
       <c r="H23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2976,7 +2984,7 @@
       <c r="H24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2999,7 +3007,7 @@
       <c r="H25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3022,7 +3030,7 @@
       <c r="H26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3045,7 +3053,7 @@
       <c r="H27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3068,7 +3076,7 @@
       <c r="H28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3091,7 +3099,7 @@
       <c r="H29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3114,7 +3122,7 @@
       <c r="H30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3137,7 +3145,7 @@
       <c r="H31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3160,7 +3168,7 @@
       <c r="H32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3183,7 +3191,7 @@
       <c r="H33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3206,7 +3214,7 @@
       <c r="H34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3229,7 +3237,7 @@
       <c r="H35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3252,7 +3260,7 @@
       <c r="H36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3275,7 +3283,7 @@
       <c r="H37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3298,7 +3306,7 @@
       <c r="H38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3321,7 +3329,7 @@
       <c r="H39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3344,7 +3352,7 @@
       <c r="H40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3367,7 +3375,7 @@
       <c r="H41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3390,7 +3398,7 @@
       <c r="H42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3413,7 +3421,7 @@
       <c r="H43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3436,7 +3444,7 @@
       <c r="H44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3459,7 +3467,7 @@
       <c r="H45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3482,7 +3490,7 @@
       <c r="H46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3505,7 +3513,7 @@
       <c r="H47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3528,7 +3536,7 @@
       <c r="H48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3551,7 +3559,7 @@
       <c r="H49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3574,7 +3582,7 @@
       <c r="H50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3597,7 +3605,7 @@
       <c r="H51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3620,7 +3628,7 @@
       <c r="H52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3643,7 +3651,7 @@
       <c r="H53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3666,7 +3674,7 @@
       <c r="H54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3689,7 +3697,7 @@
       <c r="H55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3712,7 +3720,7 @@
       <c r="H56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3735,7 +3743,7 @@
       <c r="H57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3758,7 +3766,7 @@
       <c r="H58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3781,7 +3789,7 @@
       <c r="H59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3804,7 +3812,7 @@
       <c r="H60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3827,7 +3835,7 @@
       <c r="H61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3850,7 +3858,7 @@
       <c r="H62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3873,7 +3881,7 @@
       <c r="H63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3896,7 +3904,7 @@
       <c r="H64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3919,7 +3927,7 @@
       <c r="H65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3942,7 +3950,7 @@
       <c r="H66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3965,7 +3973,7 @@
       <c r="H67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>67</v>
@@ -3988,7 +3996,7 @@
       <c r="H68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -4011,7 +4019,7 @@
       <c r="H69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -4034,7 +4042,7 @@
       <c r="H70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -4057,7 +4065,7 @@
       <c r="H71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -4080,7 +4088,7 @@
       <c r="H72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4103,7 +4111,7 @@
       <c r="H73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4126,7 +4134,7 @@
       <c r="H74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4149,7 +4157,7 @@
       <c r="H75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4172,7 +4180,7 @@
       <c r="H76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4195,7 +4203,7 @@
       <c r="H77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4218,7 +4226,7 @@
       <c r="H78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4241,7 +4249,7 @@
       <c r="H79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4264,7 +4272,7 @@
       <c r="H80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4287,7 +4295,7 @@
       <c r="H81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -4310,7 +4318,7 @@
       <c r="H82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4333,7 +4341,7 @@
       <c r="H83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4356,7 +4364,7 @@
       <c r="H84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4379,7 +4387,7 @@
       <c r="H85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4402,7 +4410,7 @@
       <c r="H86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4425,7 +4433,7 @@
       <c r="H87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4448,7 +4456,7 @@
       <c r="H88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4471,7 +4479,7 @@
       <c r="H89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4494,7 +4502,7 @@
       <c r="H90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4517,7 +4525,7 @@
       <c r="H91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4540,7 +4548,7 @@
       <c r="H92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4563,7 +4571,7 @@
       <c r="H93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4586,7 +4594,7 @@
       <c r="H94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4609,7 +4617,7 @@
       <c r="H95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -4632,7 +4640,7 @@
       <c r="H96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4655,7 +4663,7 @@
       <c r="H97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4678,7 +4686,7 @@
       <c r="H98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4701,7 +4709,7 @@
       <c r="H99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4724,7 +4732,7 @@
       <c r="H100" s="1"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4747,7 +4755,7 @@
       <c r="H101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4770,7 +4778,7 @@
       <c r="H102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4793,7 +4801,7 @@
       <c r="H103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4816,7 +4824,7 @@
       <c r="H104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4839,7 +4847,7 @@
       <c r="H105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4862,7 +4870,7 @@
       <c r="H106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4885,7 +4893,7 @@
       <c r="H107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4908,7 +4916,7 @@
       <c r="H108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -4931,7 +4939,7 @@
       <c r="H109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -4954,7 +4962,7 @@
       <c r="H110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -4977,7 +4985,7 @@
       <c r="H111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -5000,7 +5008,7 @@
       <c r="H112" s="1"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -5023,7 +5031,7 @@
       <c r="H113" s="1"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -5046,7 +5054,7 @@
       <c r="H114" s="1"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -5069,7 +5077,7 @@
       <c r="H115" s="1"/>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -5092,7 +5100,7 @@
       <c r="H116" s="1"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -5115,7 +5123,7 @@
       <c r="H117" s="1"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -5138,7 +5146,7 @@
       <c r="H118" s="1"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -5161,7 +5169,7 @@
       <c r="H119" s="1"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -5184,7 +5192,7 @@
       <c r="H120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -5207,7 +5215,7 @@
       <c r="H121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -5230,7 +5238,7 @@
       <c r="H122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -5253,7 +5261,7 @@
       <c r="H123" s="1"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -5276,7 +5284,7 @@
       <c r="H124" s="1"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -5299,7 +5307,7 @@
       <c r="H125" s="1"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -5322,7 +5330,7 @@
       <c r="H126" s="1"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -5345,7 +5353,7 @@
       <c r="H127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -5368,7 +5376,7 @@
       <c r="H128" s="1"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -5391,7 +5399,7 @@
       <c r="H129" s="1"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -5414,7 +5422,7 @@
       <c r="H130" s="1"/>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -5437,7 +5445,7 @@
       <c r="H131" s="1"/>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ref="A132:A195" si="2">A131+1</f>
         <v>131</v>
@@ -5460,7 +5468,7 @@
       <c r="H132" s="1"/>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -5483,7 +5491,7 @@
       <c r="H133" s="1"/>
       <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -5506,7 +5514,7 @@
       <c r="H134" s="1"/>
       <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -5529,7 +5537,7 @@
       <c r="H135" s="1"/>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -5552,7 +5560,7 @@
       <c r="H136" s="1"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -5575,7 +5583,7 @@
       <c r="H137" s="1"/>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -5598,7 +5606,7 @@
       <c r="H138" s="1"/>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -5621,7 +5629,7 @@
       <c r="H139" s="1"/>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -5644,7 +5652,7 @@
       <c r="H140" s="1"/>
       <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -5667,7 +5675,7 @@
       <c r="H141" s="1"/>
       <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -5690,7 +5698,7 @@
       <c r="H142" s="1"/>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -5713,7 +5721,7 @@
       <c r="H143" s="1"/>
       <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -5736,7 +5744,7 @@
       <c r="H144" s="1"/>
       <c r="J144" s="1"/>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -5759,7 +5767,7 @@
       <c r="H145" s="1"/>
       <c r="J145" s="1"/>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -5782,7 +5790,7 @@
       <c r="H146" s="1"/>
       <c r="J146" s="1"/>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -5805,7 +5813,7 @@
       <c r="H147" s="1"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -5828,7 +5836,7 @@
       <c r="H148" s="1"/>
       <c r="J148" s="1"/>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -5851,7 +5859,7 @@
       <c r="H149" s="1"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -5874,7 +5882,7 @@
       <c r="H150" s="1"/>
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -5897,7 +5905,7 @@
       <c r="H151" s="1"/>
       <c r="J151" s="1"/>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -5920,7 +5928,7 @@
       <c r="H152" s="1"/>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -5943,7 +5951,7 @@
       <c r="H153" s="1"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -5966,7 +5974,7 @@
       <c r="H154" s="1"/>
       <c r="J154" s="1"/>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -5989,7 +5997,7 @@
       <c r="H155" s="1"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -6012,7 +6020,7 @@
       <c r="H156" s="1"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -6035,7 +6043,7 @@
       <c r="H157" s="1"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -6058,7 +6066,7 @@
       <c r="H158" s="1"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -6081,7 +6089,7 @@
       <c r="H159" s="1"/>
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -6104,7 +6112,7 @@
       <c r="H160" s="1"/>
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -6127,7 +6135,7 @@
       <c r="H161" s="1"/>
       <c r="J161" s="1"/>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -6150,7 +6158,7 @@
       <c r="H162" s="1"/>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -6173,7 +6181,7 @@
       <c r="H163" s="1"/>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -6196,7 +6204,7 @@
       <c r="H164" s="1"/>
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -6219,7 +6227,7 @@
       <c r="H165" s="1"/>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -6242,7 +6250,7 @@
       <c r="H166" s="1"/>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -6265,7 +6273,7 @@
       <c r="H167" s="1"/>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -6288,7 +6296,7 @@
       <c r="H168" s="1"/>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -6311,7 +6319,7 @@
       <c r="H169" s="1"/>
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -6334,7 +6342,7 @@
       <c r="H170" s="1"/>
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -6357,7 +6365,7 @@
       <c r="H171" s="1"/>
       <c r="J171" s="1"/>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -6380,7 +6388,7 @@
       <c r="H172" s="1"/>
       <c r="J172" s="1"/>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -6403,7 +6411,7 @@
       <c r="H173" s="1"/>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -6426,7 +6434,7 @@
       <c r="H174" s="1"/>
       <c r="J174" s="1"/>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -6449,7 +6457,7 @@
       <c r="H175" s="1"/>
       <c r="J175" s="1"/>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -6472,7 +6480,7 @@
       <c r="H176" s="1"/>
       <c r="J176" s="1"/>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -6495,7 +6503,7 @@
       <c r="H177" s="1"/>
       <c r="J177" s="1"/>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -6518,7 +6526,7 @@
       <c r="H178" s="1"/>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -6541,7 +6549,7 @@
       <c r="H179" s="1"/>
       <c r="J179" s="1"/>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -6564,7 +6572,7 @@
       <c r="H180" s="1"/>
       <c r="J180" s="1"/>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -6587,7 +6595,7 @@
       <c r="H181" s="1"/>
       <c r="J181" s="1"/>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -6610,7 +6618,7 @@
       <c r="H182" s="1"/>
       <c r="J182" s="1"/>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -6633,7 +6641,7 @@
       <c r="H183" s="1"/>
       <c r="J183" s="1"/>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -6656,7 +6664,7 @@
       <c r="H184" s="1"/>
       <c r="J184" s="1"/>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -6679,7 +6687,7 @@
       <c r="H185" s="1"/>
       <c r="J185" s="1"/>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -6702,7 +6710,7 @@
       <c r="H186" s="1"/>
       <c r="J186" s="1"/>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -6725,7 +6733,7 @@
       <c r="H187" s="1"/>
       <c r="J187" s="1"/>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -6748,7 +6756,7 @@
       <c r="H188" s="1"/>
       <c r="J188" s="1"/>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -6771,7 +6779,7 @@
       <c r="H189" s="1"/>
       <c r="J189" s="1"/>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -6794,7 +6802,7 @@
       <c r="H190" s="1"/>
       <c r="J190" s="1"/>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -6817,7 +6825,7 @@
       <c r="H191" s="1"/>
       <c r="J191" s="1"/>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -6840,7 +6848,7 @@
       <c r="H192" s="1"/>
       <c r="J192" s="1"/>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -6863,7 +6871,7 @@
       <c r="H193" s="1"/>
       <c r="J193" s="1"/>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -6886,7 +6894,7 @@
       <c r="H194" s="1"/>
       <c r="J194" s="1"/>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -6909,7 +6917,7 @@
       <c r="H195" s="1"/>
       <c r="J195" s="1"/>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ref="A196:A259" si="3">A195+1</f>
         <v>195</v>
@@ -6932,7 +6940,7 @@
       <c r="H196" s="1"/>
       <c r="J196" s="1"/>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -6955,7 +6963,7 @@
       <c r="H197" s="1"/>
       <c r="J197" s="1"/>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -6978,7 +6986,7 @@
       <c r="H198" s="1"/>
       <c r="J198" s="1"/>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -7001,7 +7009,7 @@
       <c r="H199" s="1"/>
       <c r="J199" s="1"/>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -7024,7 +7032,7 @@
       <c r="H200" s="1"/>
       <c r="J200" s="1"/>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -7047,7 +7055,7 @@
       <c r="H201" s="1"/>
       <c r="J201" s="1"/>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -7070,7 +7078,7 @@
       <c r="H202" s="1"/>
       <c r="J202" s="1"/>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -7093,7 +7101,7 @@
       <c r="H203" s="1"/>
       <c r="J203" s="1"/>
     </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -7116,7 +7124,7 @@
       <c r="H204" s="1"/>
       <c r="J204" s="1"/>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -7139,7 +7147,7 @@
       <c r="H205" s="1"/>
       <c r="J205" s="1"/>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -7162,7 +7170,7 @@
       <c r="H206" s="1"/>
       <c r="J206" s="1"/>
     </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -7185,7 +7193,7 @@
       <c r="H207" s="1"/>
       <c r="J207" s="1"/>
     </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -7208,7 +7216,7 @@
       <c r="H208" s="1"/>
       <c r="J208" s="1"/>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -7231,7 +7239,7 @@
       <c r="H209" s="1"/>
       <c r="J209" s="1"/>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -7254,7 +7262,7 @@
       <c r="H210" s="1"/>
       <c r="J210" s="1"/>
     </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -7277,7 +7285,7 @@
       <c r="H211" s="1"/>
       <c r="J211" s="1"/>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -7300,7 +7308,7 @@
       <c r="H212" s="1"/>
       <c r="J212" s="1"/>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -7323,7 +7331,7 @@
       <c r="H213" s="1"/>
       <c r="J213" s="1"/>
     </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -7346,7 +7354,7 @@
       <c r="H214" s="1"/>
       <c r="J214" s="1"/>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -7369,7 +7377,7 @@
       <c r="H215" s="1"/>
       <c r="J215" s="1"/>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -7392,7 +7400,7 @@
       <c r="H216" s="1"/>
       <c r="J216" s="1"/>
     </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -7415,7 +7423,7 @@
       <c r="H217" s="1"/>
       <c r="J217" s="1"/>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -7438,7 +7446,7 @@
       <c r="H218" s="1"/>
       <c r="J218" s="1"/>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -7461,7 +7469,7 @@
       <c r="H219" s="1"/>
       <c r="J219" s="1"/>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -7484,7 +7492,7 @@
       <c r="H220" s="1"/>
       <c r="J220" s="1"/>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -7507,7 +7515,7 @@
       <c r="H221" s="1"/>
       <c r="J221" s="1"/>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -7530,7 +7538,7 @@
       <c r="H222" s="1"/>
       <c r="J222" s="1"/>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -7553,7 +7561,7 @@
       <c r="H223" s="1"/>
       <c r="J223" s="1"/>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -7576,7 +7584,7 @@
       <c r="H224" s="1"/>
       <c r="J224" s="1"/>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -7599,7 +7607,7 @@
       <c r="H225" s="1"/>
       <c r="J225" s="1"/>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -7622,7 +7630,7 @@
       <c r="H226" s="1"/>
       <c r="J226" s="1"/>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -7645,7 +7653,7 @@
       <c r="H227" s="1"/>
       <c r="J227" s="1"/>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -7668,7 +7676,7 @@
       <c r="H228" s="1"/>
       <c r="J228" s="1"/>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -7691,7 +7699,7 @@
       <c r="H229" s="1"/>
       <c r="J229" s="1"/>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -7714,7 +7722,7 @@
       <c r="H230" s="1"/>
       <c r="J230" s="1"/>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -7737,7 +7745,7 @@
       <c r="H231" s="1"/>
       <c r="J231" s="1"/>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -7760,7 +7768,7 @@
       <c r="H232" s="1"/>
       <c r="J232" s="1"/>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -7783,7 +7791,7 @@
       <c r="H233" s="1"/>
       <c r="J233" s="1"/>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -7806,7 +7814,7 @@
       <c r="H234" s="1"/>
       <c r="J234" s="1"/>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -7829,7 +7837,7 @@
       <c r="H235" s="1"/>
       <c r="J235" s="1"/>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -7852,7 +7860,7 @@
       <c r="H236" s="1"/>
       <c r="J236" s="1"/>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -7875,7 +7883,7 @@
       <c r="H237" s="1"/>
       <c r="J237" s="1"/>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -7898,7 +7906,7 @@
       <c r="H238" s="1"/>
       <c r="J238" s="1"/>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -7921,7 +7929,7 @@
       <c r="H239" s="1"/>
       <c r="J239" s="1"/>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -7944,7 +7952,7 @@
       <c r="H240" s="1"/>
       <c r="J240" s="1"/>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -7967,7 +7975,7 @@
       <c r="H241" s="1"/>
       <c r="J241" s="1"/>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -7990,7 +7998,7 @@
       <c r="H242" s="1"/>
       <c r="J242" s="1"/>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -8013,7 +8021,7 @@
       <c r="H243" s="1"/>
       <c r="J243" s="1"/>
     </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -8036,7 +8044,7 @@
       <c r="H244" s="1"/>
       <c r="J244" s="1"/>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -8059,7 +8067,7 @@
       <c r="H245" s="1"/>
       <c r="J245" s="1"/>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -8082,7 +8090,7 @@
       <c r="H246" s="1"/>
       <c r="J246" s="1"/>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -8105,7 +8113,7 @@
       <c r="H247" s="1"/>
       <c r="J247" s="1"/>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -8128,7 +8136,7 @@
       <c r="H248" s="1"/>
       <c r="J248" s="1"/>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -8151,7 +8159,7 @@
       <c r="H249" s="1"/>
       <c r="J249" s="1"/>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -8174,7 +8182,7 @@
       <c r="H250" s="1"/>
       <c r="J250" s="1"/>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -8197,7 +8205,7 @@
       <c r="H251" s="1"/>
       <c r="J251" s="1"/>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -8220,7 +8228,7 @@
       <c r="H252" s="1"/>
       <c r="J252" s="1"/>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -8243,7 +8251,7 @@
       <c r="H253" s="1"/>
       <c r="J253" s="1"/>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -8266,7 +8274,7 @@
       <c r="H254" s="1"/>
       <c r="J254" s="1"/>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -8289,7 +8297,7 @@
       <c r="H255" s="1"/>
       <c r="J255" s="1"/>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -8312,7 +8320,7 @@
       <c r="H256" s="1"/>
       <c r="J256" s="1"/>
     </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -8335,7 +8343,7 @@
       <c r="H257" s="1"/>
       <c r="J257" s="1"/>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -8358,7 +8366,7 @@
       <c r="H258" s="1"/>
       <c r="J258" s="1"/>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -8381,7 +8389,7 @@
       <c r="H259" s="1"/>
       <c r="J259" s="1"/>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ref="A260:A323" si="4">A259+1</f>
         <v>259</v>
@@ -8404,7 +8412,7 @@
       <c r="H260" s="1"/>
       <c r="J260" s="1"/>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -8427,7 +8435,7 @@
       <c r="H261" s="1"/>
       <c r="J261" s="1"/>
     </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -8450,7 +8458,7 @@
       <c r="H262" s="1"/>
       <c r="J262" s="1"/>
     </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -8473,7 +8481,7 @@
       <c r="H263" s="1"/>
       <c r="J263" s="1"/>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f>A263+1</f>
         <v>263</v>
@@ -8496,7 +8504,7 @@
       <c r="H264" s="1"/>
       <c r="J264" s="1"/>
     </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -8519,7 +8527,7 @@
       <c r="H265" s="1"/>
       <c r="J265" s="1"/>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -8542,7 +8550,7 @@
       <c r="H266" s="1"/>
       <c r="J266" s="1"/>
     </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -8565,7 +8573,7 @@
       <c r="H267" s="1"/>
       <c r="J267" s="1"/>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -8588,7 +8596,7 @@
       <c r="H268" s="1"/>
       <c r="J268" s="1"/>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -8611,7 +8619,7 @@
       <c r="H269" s="1"/>
       <c r="J269" s="1"/>
     </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -8634,7 +8642,7 @@
       <c r="H270" s="1"/>
       <c r="J270" s="1"/>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -8657,7 +8665,7 @@
       <c r="H271" s="1"/>
       <c r="J271" s="1"/>
     </row>
-    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -8680,7 +8688,7 @@
       <c r="H272" s="1"/>
       <c r="J272" s="1"/>
     </row>
-    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -8703,7 +8711,7 @@
       <c r="H273" s="1"/>
       <c r="J273" s="1"/>
     </row>
-    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -8726,7 +8734,7 @@
       <c r="H274" s="1"/>
       <c r="J274" s="1"/>
     </row>
-    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -8749,7 +8757,7 @@
       <c r="H275" s="1"/>
       <c r="J275" s="1"/>
     </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -8772,7 +8780,7 @@
       <c r="H276" s="1"/>
       <c r="J276" s="1"/>
     </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -8795,7 +8803,7 @@
       <c r="H277" s="1"/>
       <c r="J277" s="1"/>
     </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -8818,7 +8826,7 @@
       <c r="H278" s="1"/>
       <c r="J278" s="1"/>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -8841,7 +8849,7 @@
       <c r="H279" s="1"/>
       <c r="J279" s="1"/>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -8864,7 +8872,7 @@
       <c r="H280" s="1"/>
       <c r="J280" s="1"/>
     </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -8887,7 +8895,7 @@
       <c r="H281" s="1"/>
       <c r="J281" s="1"/>
     </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -8910,7 +8918,7 @@
       <c r="H282" s="1"/>
       <c r="J282" s="1"/>
     </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -8933,7 +8941,7 @@
       <c r="H283" s="1"/>
       <c r="J283" s="1"/>
     </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -8956,7 +8964,7 @@
       <c r="H284" s="1"/>
       <c r="J284" s="1"/>
     </row>
-    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -8979,7 +8987,7 @@
       <c r="H285" s="1"/>
       <c r="J285" s="1"/>
     </row>
-    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -9002,7 +9010,7 @@
       <c r="H286" s="1"/>
       <c r="J286" s="1"/>
     </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -9025,7 +9033,7 @@
       <c r="H287" s="1"/>
       <c r="J287" s="1"/>
     </row>
-    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -9048,7 +9056,7 @@
       <c r="H288" s="1"/>
       <c r="J288" s="1"/>
     </row>
-    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -9071,7 +9079,7 @@
       <c r="H289" s="1"/>
       <c r="J289" s="1"/>
     </row>
-    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -9094,7 +9102,7 @@
       <c r="H290" s="1"/>
       <c r="J290" s="1"/>
     </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -9117,7 +9125,7 @@
       <c r="H291" s="1"/>
       <c r="J291" s="1"/>
     </row>
-    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -9140,7 +9148,7 @@
       <c r="H292" s="1"/>
       <c r="J292" s="1"/>
     </row>
-    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -9163,7 +9171,7 @@
       <c r="H293" s="1"/>
       <c r="J293" s="1"/>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -9186,7 +9194,7 @@
       <c r="H294" s="1"/>
       <c r="J294" s="1"/>
     </row>
-    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -9209,7 +9217,7 @@
       <c r="H295" s="1"/>
       <c r="J295" s="1"/>
     </row>
-    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -9232,7 +9240,7 @@
       <c r="H296" s="1"/>
       <c r="J296" s="1"/>
     </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -9255,7 +9263,7 @@
       <c r="H297" s="1"/>
       <c r="J297" s="1"/>
     </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -9278,7 +9286,7 @@
       <c r="H298" s="1"/>
       <c r="J298" s="1"/>
     </row>
-    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -9301,7 +9309,7 @@
       <c r="H299" s="1"/>
       <c r="J299" s="1"/>
     </row>
-    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -9324,7 +9332,7 @@
       <c r="H300" s="1"/>
       <c r="J300" s="1"/>
     </row>
-    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -9347,7 +9355,7 @@
       <c r="H301" s="1"/>
       <c r="J301" s="1"/>
     </row>
-    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -9370,7 +9378,7 @@
       <c r="H302" s="1"/>
       <c r="J302" s="1"/>
     </row>
-    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -9393,7 +9401,7 @@
       <c r="H303" s="1"/>
       <c r="J303" s="1"/>
     </row>
-    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -9416,7 +9424,7 @@
       <c r="H304" s="1"/>
       <c r="J304" s="1"/>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -9439,7 +9447,7 @@
       <c r="H305" s="1"/>
       <c r="J305" s="1"/>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -9462,7 +9470,7 @@
       <c r="H306" s="1"/>
       <c r="J306" s="1"/>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -9485,7 +9493,7 @@
       <c r="H307" s="1"/>
       <c r="J307" s="1"/>
     </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -9508,7 +9516,7 @@
       <c r="H308" s="1"/>
       <c r="J308" s="1"/>
     </row>
-    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -9531,7 +9539,7 @@
       <c r="H309" s="1"/>
       <c r="J309" s="1"/>
     </row>
-    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -9554,7 +9562,7 @@
       <c r="H310" s="1"/>
       <c r="J310" s="1"/>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -9577,7 +9585,7 @@
       <c r="H311" s="1"/>
       <c r="J311" s="1"/>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -9600,7 +9608,7 @@
       <c r="H312" s="1"/>
       <c r="J312" s="1"/>
     </row>
-    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -9623,7 +9631,7 @@
       <c r="H313" s="1"/>
       <c r="J313" s="1"/>
     </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -9646,7 +9654,7 @@
       <c r="H314" s="1"/>
       <c r="J314" s="1"/>
     </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -9669,7 +9677,7 @@
       <c r="H315" s="1"/>
       <c r="J315" s="1"/>
     </row>
-    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -9692,7 +9700,7 @@
       <c r="H316" s="1"/>
       <c r="J316" s="1"/>
     </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -9715,7 +9723,7 @@
       <c r="H317" s="1"/>
       <c r="J317" s="1"/>
     </row>
-    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -9738,7 +9746,7 @@
       <c r="H318" s="1"/>
       <c r="J318" s="1"/>
     </row>
-    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -9761,7 +9769,7 @@
       <c r="H319" s="1"/>
       <c r="J319" s="1"/>
     </row>
-    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -9784,7 +9792,7 @@
       <c r="H320" s="1"/>
       <c r="J320" s="1"/>
     </row>
-    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -9807,7 +9815,7 @@
       <c r="H321" s="1"/>
       <c r="J321" s="1"/>
     </row>
-    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -9830,7 +9838,7 @@
       <c r="H322" s="1"/>
       <c r="J322" s="1"/>
     </row>
-    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <f t="shared" si="4"/>
         <v>322</v>
@@ -9853,7 +9861,7 @@
       <c r="H323" s="1"/>
       <c r="J323" s="1"/>
     </row>
-    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <f t="shared" ref="A324:A387" si="5">A323+1</f>
         <v>323</v>
@@ -9876,7 +9884,7 @@
       <c r="H324" s="1"/>
       <c r="J324" s="1"/>
     </row>
-    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <f t="shared" si="5"/>
         <v>324</v>
@@ -9899,7 +9907,7 @@
       <c r="H325" s="1"/>
       <c r="J325" s="1"/>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <f t="shared" si="5"/>
         <v>325</v>
@@ -9922,7 +9930,7 @@
       <c r="H326" s="1"/>
       <c r="J326" s="1"/>
     </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -9945,7 +9953,7 @@
       <c r="H327" s="1"/>
       <c r="J327" s="1"/>
     </row>
-    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -9968,7 +9976,7 @@
       <c r="H328" s="1"/>
       <c r="J328" s="1"/>
     </row>
-    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -9991,7 +9999,7 @@
       <c r="H329" s="1"/>
       <c r="J329" s="1"/>
     </row>
-    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -10014,7 +10022,7 @@
       <c r="H330" s="1"/>
       <c r="J330" s="1"/>
     </row>
-    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -10037,7 +10045,7 @@
       <c r="H331" s="1"/>
       <c r="J331" s="1"/>
     </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -10060,7 +10068,7 @@
       <c r="H332" s="1"/>
       <c r="J332" s="1"/>
     </row>
-    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -10083,7 +10091,7 @@
       <c r="H333" s="1"/>
       <c r="J333" s="1"/>
     </row>
-    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -10106,7 +10114,7 @@
       <c r="H334" s="1"/>
       <c r="J334" s="1"/>
     </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -10129,7 +10137,7 @@
       <c r="H335" s="1"/>
       <c r="J335" s="1"/>
     </row>
-    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -10152,7 +10160,7 @@
       <c r="H336" s="1"/>
       <c r="J336" s="1"/>
     </row>
-    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -10175,7 +10183,7 @@
       <c r="H337" s="1"/>
       <c r="J337" s="1"/>
     </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -10198,7 +10206,7 @@
       <c r="H338" s="1"/>
       <c r="J338" s="1"/>
     </row>
-    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -10221,7 +10229,7 @@
       <c r="H339" s="1"/>
       <c r="J339" s="1"/>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -10244,7 +10252,7 @@
       <c r="H340" s="1"/>
       <c r="J340" s="1"/>
     </row>
-    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -10267,7 +10275,7 @@
       <c r="H341" s="1"/>
       <c r="J341" s="1"/>
     </row>
-    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -10290,7 +10298,7 @@
       <c r="H342" s="1"/>
       <c r="J342" s="1"/>
     </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -10313,7 +10321,7 @@
       <c r="H343" s="1"/>
       <c r="J343" s="1"/>
     </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -10336,7 +10344,7 @@
       <c r="H344" s="1"/>
       <c r="J344" s="1"/>
     </row>
-    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -10359,7 +10367,7 @@
       <c r="H345" s="1"/>
       <c r="J345" s="1"/>
     </row>
-    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -10382,7 +10390,7 @@
       <c r="H346" s="1"/>
       <c r="J346" s="1"/>
     </row>
-    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -10405,7 +10413,7 @@
       <c r="H347" s="1"/>
       <c r="J347" s="1"/>
     </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <f t="shared" si="5"/>
         <v>347</v>
@@ -10428,7 +10436,7 @@
       <c r="H348" s="1"/>
       <c r="J348" s="1"/>
     </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -10451,7 +10459,7 @@
       <c r="H349" s="1"/>
       <c r="J349" s="1"/>
     </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <f t="shared" si="5"/>
         <v>349</v>
@@ -10474,7 +10482,7 @@
       <c r="H350" s="1"/>
       <c r="J350" s="1"/>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -10497,7 +10505,7 @@
       <c r="H351" s="1"/>
       <c r="J351" s="1"/>
     </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -10520,7 +10528,7 @@
       <c r="H352" s="1"/>
       <c r="J352" s="1"/>
     </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -10543,7 +10551,7 @@
       <c r="H353" s="1"/>
       <c r="J353" s="1"/>
     </row>
-    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -10566,7 +10574,7 @@
       <c r="H354" s="1"/>
       <c r="J354" s="1"/>
     </row>
-    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -10589,7 +10597,7 @@
       <c r="H355" s="1"/>
       <c r="J355" s="1"/>
     </row>
-    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -10612,7 +10620,7 @@
       <c r="H356" s="1"/>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -10635,7 +10643,7 @@
       <c r="H357" s="1"/>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -10658,7 +10666,7 @@
       <c r="H358" s="1"/>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -10681,7 +10689,7 @@
       <c r="H359" s="1"/>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -10704,7 +10712,7 @@
       <c r="H360" s="1"/>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -10727,7 +10735,7 @@
       <c r="H361" s="1"/>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -10750,7 +10758,7 @@
       <c r="H362" s="1"/>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -10773,7 +10781,7 @@
       <c r="H363" s="1"/>
       <c r="J363" s="1"/>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -10796,7 +10804,7 @@
       <c r="H364" s="1"/>
       <c r="J364" s="1"/>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -10819,7 +10827,7 @@
       <c r="H365" s="1"/>
       <c r="J365" s="1"/>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <f t="shared" si="5"/>
         <v>365</v>
@@ -10842,7 +10850,7 @@
       <c r="H366" s="1"/>
       <c r="J366" s="1"/>
     </row>
-    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <f t="shared" si="5"/>
         <v>366</v>
@@ -10865,7 +10873,7 @@
       <c r="H367" s="1"/>
       <c r="J367" s="1"/>
     </row>
-    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <f t="shared" si="5"/>
         <v>367</v>
@@ -10888,7 +10896,7 @@
       <c r="H368" s="1"/>
       <c r="J368" s="1"/>
     </row>
-    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <f t="shared" si="5"/>
         <v>368</v>
@@ -10911,7 +10919,7 @@
       <c r="H369" s="1"/>
       <c r="J369" s="1"/>
     </row>
-    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <f t="shared" si="5"/>
         <v>369</v>
@@ -10934,7 +10942,7 @@
       <c r="H370" s="1"/>
       <c r="J370" s="1"/>
     </row>
-    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <f t="shared" si="5"/>
         <v>370</v>
@@ -10957,7 +10965,7 @@
       <c r="H371" s="1"/>
       <c r="J371" s="1"/>
     </row>
-    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <f t="shared" si="5"/>
         <v>371</v>
@@ -10980,7 +10988,7 @@
       <c r="H372" s="1"/>
       <c r="J372" s="1"/>
     </row>
-    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <f t="shared" si="5"/>
         <v>372</v>
@@ -11003,7 +11011,7 @@
       <c r="H373" s="1"/>
       <c r="J373" s="1"/>
     </row>
-    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <f t="shared" si="5"/>
         <v>373</v>
@@ -11026,7 +11034,7 @@
       <c r="H374" s="1"/>
       <c r="J374" s="1"/>
     </row>
-    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <f t="shared" si="5"/>
         <v>374</v>
@@ -11049,7 +11057,7 @@
       <c r="H375" s="1"/>
       <c r="J375" s="1"/>
     </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <f t="shared" si="5"/>
         <v>375</v>
@@ -11072,7 +11080,7 @@
       <c r="H376" s="1"/>
       <c r="J376" s="1"/>
     </row>
-    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <f t="shared" si="5"/>
         <v>376</v>
@@ -11095,7 +11103,7 @@
       <c r="H377" s="1"/>
       <c r="J377" s="1"/>
     </row>
-    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <f t="shared" si="5"/>
         <v>377</v>
@@ -11118,7 +11126,7 @@
       <c r="H378" s="1"/>
       <c r="J378" s="1"/>
     </row>
-    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <f t="shared" si="5"/>
         <v>378</v>
@@ -11141,7 +11149,7 @@
       <c r="H379" s="1"/>
       <c r="J379" s="1"/>
     </row>
-    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <f t="shared" si="5"/>
         <v>379</v>
@@ -11164,7 +11172,7 @@
       <c r="H380" s="1"/>
       <c r="J380" s="1"/>
     </row>
-    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <f t="shared" si="5"/>
         <v>380</v>
@@ -11187,7 +11195,7 @@
       <c r="H381" s="1"/>
       <c r="J381" s="1"/>
     </row>
-    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <f t="shared" si="5"/>
         <v>381</v>
@@ -11210,7 +11218,7 @@
       <c r="H382" s="1"/>
       <c r="J382" s="1"/>
     </row>
-    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <f t="shared" si="5"/>
         <v>382</v>
@@ -11233,7 +11241,7 @@
       <c r="H383" s="1"/>
       <c r="J383" s="1"/>
     </row>
-    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <f t="shared" si="5"/>
         <v>383</v>
@@ -11256,7 +11264,7 @@
       <c r="H384" s="1"/>
       <c r="J384" s="1"/>
     </row>
-    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <f t="shared" si="5"/>
         <v>384</v>
@@ -11279,7 +11287,7 @@
       <c r="H385" s="1"/>
       <c r="J385" s="1"/>
     </row>
-    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <f t="shared" si="5"/>
         <v>385</v>
@@ -11302,7 +11310,7 @@
       <c r="H386" s="1"/>
       <c r="J386" s="1"/>
     </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <f t="shared" si="5"/>
         <v>386</v>
@@ -11325,7 +11333,7 @@
       <c r="H387" s="1"/>
       <c r="J387" s="1"/>
     </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <f t="shared" ref="A388:A451" si="6">A387+1</f>
         <v>387</v>
@@ -11348,7 +11356,7 @@
       <c r="H388" s="1"/>
       <c r="J388" s="1"/>
     </row>
-    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <f t="shared" si="6"/>
         <v>388</v>
@@ -11371,7 +11379,7 @@
       <c r="H389" s="1"/>
       <c r="J389" s="1"/>
     </row>
-    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <f t="shared" si="6"/>
         <v>389</v>
@@ -11394,7 +11402,7 @@
       <c r="H390" s="1"/>
       <c r="J390" s="1"/>
     </row>
-    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <f t="shared" si="6"/>
         <v>390</v>
@@ -11417,7 +11425,7 @@
       <c r="H391" s="1"/>
       <c r="J391" s="1"/>
     </row>
-    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <f t="shared" si="6"/>
         <v>391</v>
@@ -11440,7 +11448,7 @@
       <c r="H392" s="1"/>
       <c r="J392" s="1"/>
     </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <f t="shared" si="6"/>
         <v>392</v>
@@ -11463,7 +11471,7 @@
       <c r="H393" s="1"/>
       <c r="J393" s="1"/>
     </row>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <f t="shared" si="6"/>
         <v>393</v>
@@ -11486,7 +11494,7 @@
       <c r="H394" s="1"/>
       <c r="J394" s="1"/>
     </row>
-    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <f t="shared" si="6"/>
         <v>394</v>
@@ -11509,7 +11517,7 @@
       <c r="H395" s="1"/>
       <c r="J395" s="1"/>
     </row>
-    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <f t="shared" si="6"/>
         <v>395</v>
@@ -11532,7 +11540,7 @@
       <c r="H396" s="1"/>
       <c r="J396" s="1"/>
     </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <f t="shared" si="6"/>
         <v>396</v>
@@ -11555,7 +11563,7 @@
       <c r="H397" s="1"/>
       <c r="J397" s="1"/>
     </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <f t="shared" si="6"/>
         <v>397</v>
@@ -11578,7 +11586,7 @@
       <c r="H398" s="1"/>
       <c r="J398" s="1"/>
     </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <f t="shared" si="6"/>
         <v>398</v>
@@ -11601,7 +11609,7 @@
       <c r="H399" s="1"/>
       <c r="J399" s="1"/>
     </row>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <f t="shared" si="6"/>
         <v>399</v>
@@ -11624,7 +11632,7 @@
       <c r="H400" s="1"/>
       <c r="J400" s="1"/>
     </row>
-    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <f t="shared" si="6"/>
         <v>400</v>
@@ -11647,7 +11655,7 @@
       <c r="H401" s="1"/>
       <c r="J401" s="1"/>
     </row>
-    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <f t="shared" si="6"/>
         <v>401</v>
@@ -11670,7 +11678,7 @@
       <c r="H402" s="1"/>
       <c r="J402" s="1"/>
     </row>
-    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <f t="shared" si="6"/>
         <v>402</v>
@@ -11693,7 +11701,7 @@
       <c r="H403" s="1"/>
       <c r="J403" s="1"/>
     </row>
-    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <f t="shared" si="6"/>
         <v>403</v>
@@ -11716,7 +11724,7 @@
       <c r="H404" s="1"/>
       <c r="J404" s="1"/>
     </row>
-    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <f t="shared" si="6"/>
         <v>404</v>
@@ -11739,7 +11747,7 @@
       <c r="H405" s="1"/>
       <c r="J405" s="1"/>
     </row>
-    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <f t="shared" si="6"/>
         <v>405</v>
@@ -11762,7 +11770,7 @@
       <c r="H406" s="1"/>
       <c r="J406" s="1"/>
     </row>
-    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <f t="shared" si="6"/>
         <v>406</v>
@@ -11785,7 +11793,7 @@
       <c r="H407" s="1"/>
       <c r="J407" s="1"/>
     </row>
-    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <f t="shared" si="6"/>
         <v>407</v>
@@ -11808,7 +11816,7 @@
       <c r="H408" s="1"/>
       <c r="J408" s="1"/>
     </row>
-    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <f t="shared" si="6"/>
         <v>408</v>
@@ -11831,7 +11839,7 @@
       <c r="H409" s="1"/>
       <c r="J409" s="1"/>
     </row>
-    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <f t="shared" si="6"/>
         <v>409</v>
@@ -11854,7 +11862,7 @@
       <c r="H410" s="1"/>
       <c r="J410" s="1"/>
     </row>
-    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <f t="shared" si="6"/>
         <v>410</v>
@@ -11877,7 +11885,7 @@
       <c r="H411" s="1"/>
       <c r="J411" s="1"/>
     </row>
-    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <f t="shared" si="6"/>
         <v>411</v>
@@ -11900,7 +11908,7 @@
       <c r="H412" s="1"/>
       <c r="J412" s="1"/>
     </row>
-    <row r="413" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <f t="shared" si="6"/>
         <v>412</v>
@@ -11923,7 +11931,7 @@
       <c r="H413" s="1"/>
       <c r="J413" s="1"/>
     </row>
-    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <f t="shared" si="6"/>
         <v>413</v>
@@ -11946,7 +11954,7 @@
       <c r="H414" s="1"/>
       <c r="J414" s="1"/>
     </row>
-    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <f t="shared" si="6"/>
         <v>414</v>
@@ -11969,7 +11977,7 @@
       <c r="H415" s="1"/>
       <c r="J415" s="1"/>
     </row>
-    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <f t="shared" si="6"/>
         <v>415</v>
@@ -11992,7 +12000,7 @@
       <c r="H416" s="1"/>
       <c r="J416" s="1"/>
     </row>
-    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <f t="shared" si="6"/>
         <v>416</v>
@@ -12015,7 +12023,7 @@
       <c r="H417" s="1"/>
       <c r="J417" s="1"/>
     </row>
-    <row r="418" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <f t="shared" si="6"/>
         <v>417</v>
@@ -12038,7 +12046,7 @@
       <c r="H418" s="1"/>
       <c r="J418" s="1"/>
     </row>
-    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <f t="shared" si="6"/>
         <v>418</v>
@@ -12061,7 +12069,7 @@
       <c r="H419" s="1"/>
       <c r="J419" s="1"/>
     </row>
-    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <f t="shared" si="6"/>
         <v>419</v>
@@ -12084,7 +12092,7 @@
       <c r="H420" s="1"/>
       <c r="J420" s="1"/>
     </row>
-    <row r="421" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <f t="shared" si="6"/>
         <v>420</v>
@@ -12107,7 +12115,7 @@
       <c r="H421" s="1"/>
       <c r="J421" s="1"/>
     </row>
-    <row r="422" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <f t="shared" si="6"/>
         <v>421</v>
@@ -12130,7 +12138,7 @@
       <c r="H422" s="1"/>
       <c r="J422" s="1"/>
     </row>
-    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <f t="shared" si="6"/>
         <v>422</v>
@@ -12153,7 +12161,7 @@
       <c r="H423" s="1"/>
       <c r="J423" s="1"/>
     </row>
-    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <f t="shared" si="6"/>
         <v>423</v>
@@ -12176,7 +12184,7 @@
       <c r="H424" s="1"/>
       <c r="J424" s="1"/>
     </row>
-    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <f t="shared" si="6"/>
         <v>424</v>
@@ -12199,7 +12207,7 @@
       <c r="H425" s="1"/>
       <c r="J425" s="1"/>
     </row>
-    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <f t="shared" si="6"/>
         <v>425</v>
@@ -12222,7 +12230,7 @@
       <c r="H426" s="1"/>
       <c r="J426" s="1"/>
     </row>
-    <row r="427" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <f t="shared" si="6"/>
         <v>426</v>
@@ -12245,7 +12253,7 @@
       <c r="H427" s="1"/>
       <c r="J427" s="1"/>
     </row>
-    <row r="428" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <f t="shared" si="6"/>
         <v>427</v>
@@ -12268,7 +12276,7 @@
       <c r="H428" s="1"/>
       <c r="J428" s="1"/>
     </row>
-    <row r="429" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <f t="shared" si="6"/>
         <v>428</v>
@@ -12291,7 +12299,7 @@
       <c r="H429" s="1"/>
       <c r="J429" s="1"/>
     </row>
-    <row r="430" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <f t="shared" si="6"/>
         <v>429</v>
@@ -12314,7 +12322,7 @@
       <c r="H430" s="1"/>
       <c r="J430" s="1"/>
     </row>
-    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <f t="shared" si="6"/>
         <v>430</v>
@@ -12337,7 +12345,7 @@
       <c r="H431" s="1"/>
       <c r="J431" s="1"/>
     </row>
-    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <f t="shared" si="6"/>
         <v>431</v>
@@ -12360,7 +12368,7 @@
       <c r="H432" s="1"/>
       <c r="J432" s="1"/>
     </row>
-    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <f t="shared" si="6"/>
         <v>432</v>
@@ -12383,7 +12391,7 @@
       <c r="H433" s="1"/>
       <c r="J433" s="1"/>
     </row>
-    <row r="434" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <f t="shared" si="6"/>
         <v>433</v>
@@ -12406,7 +12414,7 @@
       <c r="H434" s="1"/>
       <c r="J434" s="1"/>
     </row>
-    <row r="435" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <f t="shared" si="6"/>
         <v>434</v>
@@ -12429,7 +12437,7 @@
       <c r="H435" s="1"/>
       <c r="J435" s="1"/>
     </row>
-    <row r="436" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <f t="shared" si="6"/>
         <v>435</v>
@@ -12452,7 +12460,7 @@
       <c r="H436" s="1"/>
       <c r="J436" s="1"/>
     </row>
-    <row r="437" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <f t="shared" si="6"/>
         <v>436</v>
@@ -12475,7 +12483,7 @@
       <c r="H437" s="1"/>
       <c r="J437" s="1"/>
     </row>
-    <row r="438" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <f t="shared" si="6"/>
         <v>437</v>
@@ -12498,7 +12506,7 @@
       <c r="H438" s="1"/>
       <c r="J438" s="1"/>
     </row>
-    <row r="439" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <f t="shared" si="6"/>
         <v>438</v>
@@ -12521,7 +12529,7 @@
       <c r="H439" s="1"/>
       <c r="J439" s="1"/>
     </row>
-    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <f t="shared" si="6"/>
         <v>439</v>
@@ -12544,7 +12552,7 @@
       <c r="H440" s="1"/>
       <c r="J440" s="1"/>
     </row>
-    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <f t="shared" si="6"/>
         <v>440</v>
@@ -12567,7 +12575,7 @@
       <c r="H441" s="1"/>
       <c r="J441" s="1"/>
     </row>
-    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <f t="shared" si="6"/>
         <v>441</v>
@@ -12590,7 +12598,7 @@
       <c r="H442" s="1"/>
       <c r="J442" s="1"/>
     </row>
-    <row r="443" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <f t="shared" si="6"/>
         <v>442</v>
@@ -12613,7 +12621,7 @@
       <c r="H443" s="1"/>
       <c r="J443" s="1"/>
     </row>
-    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <f t="shared" si="6"/>
         <v>443</v>
@@ -12636,7 +12644,7 @@
       <c r="H444" s="1"/>
       <c r="J444" s="1"/>
     </row>
-    <row r="445" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <f t="shared" si="6"/>
         <v>444</v>
@@ -12659,7 +12667,7 @@
       <c r="H445" s="1"/>
       <c r="J445" s="1"/>
     </row>
-    <row r="446" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <f t="shared" si="6"/>
         <v>445</v>
@@ -12682,7 +12690,7 @@
       <c r="H446" s="1"/>
       <c r="J446" s="1"/>
     </row>
-    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <f t="shared" si="6"/>
         <v>446</v>
@@ -12705,7 +12713,7 @@
       <c r="H447" s="1"/>
       <c r="J447" s="1"/>
     </row>
-    <row r="448" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <f t="shared" si="6"/>
         <v>447</v>
@@ -12728,7 +12736,7 @@
       <c r="H448" s="1"/>
       <c r="J448" s="1"/>
     </row>
-    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <f t="shared" si="6"/>
         <v>448</v>
@@ -12751,7 +12759,7 @@
       <c r="H449" s="1"/>
       <c r="J449" s="1"/>
     </row>
-    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <f t="shared" si="6"/>
         <v>449</v>
@@ -12774,7 +12782,7 @@
       <c r="H450" s="1"/>
       <c r="J450" s="1"/>
     </row>
-    <row r="451" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <f t="shared" si="6"/>
         <v>450</v>
@@ -12797,7 +12805,7 @@
       <c r="H451" s="1"/>
       <c r="J451" s="1"/>
     </row>
-    <row r="452" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <f t="shared" ref="A452:A515" si="7">A451+1</f>
         <v>451</v>
@@ -12820,7 +12828,7 @@
       <c r="H452" s="1"/>
       <c r="J452" s="1"/>
     </row>
-    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <f t="shared" si="7"/>
         <v>452</v>
@@ -12843,7 +12851,7 @@
       <c r="H453" s="1"/>
       <c r="J453" s="1"/>
     </row>
-    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <f t="shared" si="7"/>
         <v>453</v>
@@ -12866,7 +12874,7 @@
       <c r="H454" s="1"/>
       <c r="J454" s="1"/>
     </row>
-    <row r="455" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <f t="shared" si="7"/>
         <v>454</v>
@@ -12889,7 +12897,7 @@
       <c r="H455" s="1"/>
       <c r="J455" s="1"/>
     </row>
-    <row r="456" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <f t="shared" si="7"/>
         <v>455</v>
@@ -12912,7 +12920,7 @@
       <c r="H456" s="1"/>
       <c r="J456" s="1"/>
     </row>
-    <row r="457" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <f t="shared" si="7"/>
         <v>456</v>
@@ -12935,7 +12943,7 @@
       <c r="H457" s="1"/>
       <c r="J457" s="1"/>
     </row>
-    <row r="458" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <f t="shared" si="7"/>
         <v>457</v>
@@ -12958,7 +12966,7 @@
       <c r="H458" s="1"/>
       <c r="J458" s="1"/>
     </row>
-    <row r="459" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <f t="shared" si="7"/>
         <v>458</v>
@@ -12981,7 +12989,7 @@
       <c r="H459" s="1"/>
       <c r="J459" s="1"/>
     </row>
-    <row r="460" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <f t="shared" si="7"/>
         <v>459</v>
@@ -13004,7 +13012,7 @@
       <c r="H460" s="1"/>
       <c r="J460" s="1"/>
     </row>
-    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <f t="shared" si="7"/>
         <v>460</v>
@@ -13027,7 +13035,7 @@
       <c r="H461" s="1"/>
       <c r="J461" s="1"/>
     </row>
-    <row r="462" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <f t="shared" si="7"/>
         <v>461</v>
@@ -13050,7 +13058,7 @@
       <c r="H462" s="1"/>
       <c r="J462" s="1"/>
     </row>
-    <row r="463" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
         <f t="shared" si="7"/>
         <v>462</v>
@@ -13073,7 +13081,7 @@
       <c r="H463" s="1"/>
       <c r="J463" s="1"/>
     </row>
-    <row r="464" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <f t="shared" si="7"/>
         <v>463</v>
@@ -13096,7 +13104,7 @@
       <c r="H464" s="1"/>
       <c r="J464" s="1"/>
     </row>
-    <row r="465" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" s="2">
         <f t="shared" si="7"/>
         <v>464</v>
@@ -13119,7 +13127,7 @@
       <c r="H465" s="1"/>
       <c r="J465" s="1"/>
     </row>
-    <row r="466" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466" s="2">
         <f t="shared" si="7"/>
         <v>465</v>
@@ -13142,7 +13150,7 @@
       <c r="H466" s="1"/>
       <c r="J466" s="1"/>
     </row>
-    <row r="467" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <f t="shared" si="7"/>
         <v>466</v>
@@ -13165,7 +13173,7 @@
       <c r="H467" s="1"/>
       <c r="J467" s="1"/>
     </row>
-    <row r="468" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468" s="2">
         <f t="shared" si="7"/>
         <v>467</v>
@@ -13188,7 +13196,7 @@
       <c r="H468" s="1"/>
       <c r="J468" s="1"/>
     </row>
-    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" s="2">
         <f t="shared" si="7"/>
         <v>468</v>
@@ -13211,7 +13219,7 @@
       <c r="H469" s="1"/>
       <c r="J469" s="1"/>
     </row>
-    <row r="470" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" s="2">
         <f t="shared" si="7"/>
         <v>469</v>
@@ -13234,7 +13242,7 @@
       <c r="H470" s="1"/>
       <c r="J470" s="1"/>
     </row>
-    <row r="471" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471" s="2">
         <f t="shared" si="7"/>
         <v>470</v>
@@ -13257,7 +13265,7 @@
       <c r="H471" s="1"/>
       <c r="J471" s="1"/>
     </row>
-    <row r="472" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472" s="2">
         <f t="shared" si="7"/>
         <v>471</v>
@@ -13280,7 +13288,7 @@
       <c r="H472" s="1"/>
       <c r="J472" s="1"/>
     </row>
-    <row r="473" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" s="2">
         <f t="shared" si="7"/>
         <v>472</v>
@@ -13303,7 +13311,7 @@
       <c r="H473" s="1"/>
       <c r="J473" s="1"/>
     </row>
-    <row r="474" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" s="2">
         <f t="shared" si="7"/>
         <v>473</v>
@@ -13326,7 +13334,7 @@
       <c r="H474" s="1"/>
       <c r="J474" s="1"/>
     </row>
-    <row r="475" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
         <f t="shared" si="7"/>
         <v>474</v>
@@ -13349,7 +13357,7 @@
       <c r="H475" s="1"/>
       <c r="J475" s="1"/>
     </row>
-    <row r="476" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" s="2">
         <f t="shared" si="7"/>
         <v>475</v>
@@ -13372,7 +13380,7 @@
       <c r="H476" s="1"/>
       <c r="J476" s="1"/>
     </row>
-    <row r="477" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" s="2">
         <f t="shared" si="7"/>
         <v>476</v>
@@ -13395,7 +13403,7 @@
       <c r="H477" s="1"/>
       <c r="J477" s="1"/>
     </row>
-    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" s="2">
         <f t="shared" si="7"/>
         <v>477</v>
@@ -13418,7 +13426,7 @@
       <c r="H478" s="1"/>
       <c r="J478" s="1"/>
     </row>
-    <row r="479" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" s="2">
         <f t="shared" si="7"/>
         <v>478</v>
@@ -13441,7 +13449,7 @@
       <c r="H479" s="1"/>
       <c r="J479" s="1"/>
     </row>
-    <row r="480" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" s="2">
         <f t="shared" si="7"/>
         <v>479</v>
@@ -13464,7 +13472,7 @@
       <c r="H480" s="1"/>
       <c r="J480" s="1"/>
     </row>
-    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" s="2">
         <f t="shared" si="7"/>
         <v>480</v>
@@ -13487,7 +13495,7 @@
       <c r="H481" s="1"/>
       <c r="J481" s="1"/>
     </row>
-    <row r="482" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" s="2">
         <f t="shared" si="7"/>
         <v>481</v>
@@ -13510,7 +13518,7 @@
       <c r="H482" s="1"/>
       <c r="J482" s="1"/>
     </row>
-    <row r="483" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" s="2">
         <f t="shared" si="7"/>
         <v>482</v>
@@ -13533,7 +13541,7 @@
       <c r="H483" s="1"/>
       <c r="J483" s="1"/>
     </row>
-    <row r="484" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" s="2">
         <f t="shared" si="7"/>
         <v>483</v>
@@ -13556,7 +13564,7 @@
       <c r="H484" s="1"/>
       <c r="J484" s="1"/>
     </row>
-    <row r="485" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" s="2">
         <f t="shared" si="7"/>
         <v>484</v>
@@ -13579,7 +13587,7 @@
       <c r="H485" s="1"/>
       <c r="J485" s="1"/>
     </row>
-    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" s="2">
         <f t="shared" si="7"/>
         <v>485</v>
@@ -13602,7 +13610,7 @@
       <c r="H486" s="1"/>
       <c r="J486" s="1"/>
     </row>
-    <row r="487" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" s="2">
         <f t="shared" si="7"/>
         <v>486</v>
@@ -13625,7 +13633,7 @@
       <c r="H487" s="1"/>
       <c r="J487" s="1"/>
     </row>
-    <row r="488" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" s="2">
         <f t="shared" si="7"/>
         <v>487</v>
@@ -13648,7 +13656,7 @@
       <c r="H488" s="1"/>
       <c r="J488" s="1"/>
     </row>
-    <row r="489" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" s="2">
         <f t="shared" si="7"/>
         <v>488</v>
@@ -13671,7 +13679,7 @@
       <c r="H489" s="1"/>
       <c r="J489" s="1"/>
     </row>
-    <row r="490" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" s="2">
         <f t="shared" si="7"/>
         <v>489</v>
@@ -13694,7 +13702,7 @@
       <c r="H490" s="1"/>
       <c r="J490" s="1"/>
     </row>
-    <row r="491" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" s="2">
         <f t="shared" si="7"/>
         <v>490</v>
@@ -13717,7 +13725,7 @@
       <c r="H491" s="1"/>
       <c r="J491" s="1"/>
     </row>
-    <row r="492" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" s="2">
         <f t="shared" si="7"/>
         <v>491</v>
@@ -13740,7 +13748,7 @@
       <c r="H492" s="1"/>
       <c r="J492" s="1"/>
     </row>
-    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" s="2">
         <f t="shared" si="7"/>
         <v>492</v>
@@ -13763,7 +13771,7 @@
       <c r="H493" s="1"/>
       <c r="J493" s="1"/>
     </row>
-    <row r="494" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" s="2">
         <f t="shared" si="7"/>
         <v>493</v>
@@ -13786,7 +13794,7 @@
       <c r="H494" s="1"/>
       <c r="J494" s="1"/>
     </row>
-    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" s="2">
         <f t="shared" si="7"/>
         <v>494</v>
@@ -13809,7 +13817,7 @@
       <c r="H495" s="1"/>
       <c r="J495" s="1"/>
     </row>
-    <row r="496" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" s="2">
         <f t="shared" si="7"/>
         <v>495</v>
@@ -13832,7 +13840,7 @@
       <c r="H496" s="1"/>
       <c r="J496" s="1"/>
     </row>
-    <row r="497" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" s="2">
         <f t="shared" si="7"/>
         <v>496</v>
@@ -13855,7 +13863,7 @@
       <c r="H497" s="1"/>
       <c r="J497" s="1"/>
     </row>
-    <row r="498" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" s="2">
         <f t="shared" si="7"/>
         <v>497</v>
@@ -13878,7 +13886,7 @@
       <c r="H498" s="1"/>
       <c r="J498" s="1"/>
     </row>
-    <row r="499" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" s="2">
         <f t="shared" si="7"/>
         <v>498</v>
@@ -13901,7 +13909,7 @@
       <c r="H499" s="1"/>
       <c r="J499" s="1"/>
     </row>
-    <row r="500" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" s="2">
         <f t="shared" si="7"/>
         <v>499</v>
@@ -13924,7 +13932,7 @@
       <c r="H500" s="1"/>
       <c r="J500" s="1"/>
     </row>
-    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" s="2">
         <f t="shared" si="7"/>
         <v>500</v>
@@ -13947,7 +13955,7 @@
       <c r="H501" s="1"/>
       <c r="J501" s="1"/>
     </row>
-    <row r="502" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502" s="2">
         <f t="shared" si="7"/>
         <v>501</v>
@@ -13970,7 +13978,7 @@
       <c r="H502" s="1"/>
       <c r="J502" s="1"/>
     </row>
-    <row r="503" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" s="2">
         <f t="shared" si="7"/>
         <v>502</v>
@@ -13993,7 +14001,7 @@
       <c r="H503" s="1"/>
       <c r="J503" s="1"/>
     </row>
-    <row r="504" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" s="2">
         <f t="shared" si="7"/>
         <v>503</v>
@@ -14016,7 +14024,7 @@
       <c r="H504" s="1"/>
       <c r="J504" s="1"/>
     </row>
-    <row r="505" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" s="2">
         <f t="shared" si="7"/>
         <v>504</v>
@@ -14039,7 +14047,7 @@
       <c r="H505" s="1"/>
       <c r="J505" s="1"/>
     </row>
-    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" s="2">
         <f t="shared" si="7"/>
         <v>505</v>
@@ -14062,7 +14070,7 @@
       <c r="H506" s="1"/>
       <c r="J506" s="1"/>
     </row>
-    <row r="507" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" s="2">
         <f t="shared" si="7"/>
         <v>506</v>
@@ -14085,7 +14093,7 @@
       <c r="H507" s="1"/>
       <c r="J507" s="1"/>
     </row>
-    <row r="508" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508" s="2">
         <f t="shared" si="7"/>
         <v>507</v>
@@ -14108,7 +14116,7 @@
       <c r="H508" s="1"/>
       <c r="J508" s="1"/>
     </row>
-    <row r="509" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" s="2">
         <f t="shared" si="7"/>
         <v>508</v>
@@ -14131,7 +14139,7 @@
       <c r="H509" s="1"/>
       <c r="J509" s="1"/>
     </row>
-    <row r="510" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" s="2">
         <f t="shared" si="7"/>
         <v>509</v>
@@ -14154,7 +14162,7 @@
       <c r="H510" s="1"/>
       <c r="J510" s="1"/>
     </row>
-    <row r="511" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511" s="2">
         <f t="shared" si="7"/>
         <v>510</v>
@@ -14177,7 +14185,7 @@
       <c r="H511" s="1"/>
       <c r="J511" s="1"/>
     </row>
-    <row r="512" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512" s="2">
         <f t="shared" si="7"/>
         <v>511</v>
@@ -14200,7 +14208,7 @@
       <c r="H512" s="1"/>
       <c r="J512" s="1"/>
     </row>
-    <row r="513" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513" s="2">
         <f t="shared" si="7"/>
         <v>512</v>
@@ -14223,7 +14231,7 @@
       <c r="H513" s="1"/>
       <c r="J513" s="1"/>
     </row>
-    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" s="2">
         <f t="shared" si="7"/>
         <v>513</v>
@@ -14246,7 +14254,7 @@
       <c r="H514" s="1"/>
       <c r="J514" s="1"/>
     </row>
-    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" s="2">
         <f t="shared" si="7"/>
         <v>514</v>
@@ -14269,7 +14277,7 @@
       <c r="H515" s="1"/>
       <c r="J515" s="1"/>
     </row>
-    <row r="516" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A516" s="2">
         <f t="shared" ref="A516:A579" si="8">A515+1</f>
         <v>515</v>
@@ -14292,7 +14300,7 @@
       <c r="H516" s="1"/>
       <c r="J516" s="1"/>
     </row>
-    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A517" s="2">
         <f t="shared" si="8"/>
         <v>516</v>
@@ -14315,7 +14323,7 @@
       <c r="H517" s="1"/>
       <c r="J517" s="1"/>
     </row>
-    <row r="518" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A518" s="2">
         <f t="shared" si="8"/>
         <v>517</v>
@@ -14338,7 +14346,7 @@
       <c r="H518" s="1"/>
       <c r="J518" s="1"/>
     </row>
-    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A519" s="2">
         <f t="shared" si="8"/>
         <v>518</v>
@@ -14361,7 +14369,7 @@
       <c r="H519" s="1"/>
       <c r="J519" s="1"/>
     </row>
-    <row r="520" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A520" s="2">
         <f t="shared" si="8"/>
         <v>519</v>
@@ -14384,7 +14392,7 @@
       <c r="H520" s="1"/>
       <c r="J520" s="1"/>
     </row>
-    <row r="521" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A521" s="2">
         <f t="shared" si="8"/>
         <v>520</v>
@@ -14407,7 +14415,7 @@
       <c r="H521" s="1"/>
       <c r="J521" s="1"/>
     </row>
-    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A522" s="2">
         <f t="shared" si="8"/>
         <v>521</v>
@@ -14430,7 +14438,7 @@
       <c r="H522" s="1"/>
       <c r="J522" s="1"/>
     </row>
-    <row r="523" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A523" s="2">
         <f t="shared" si="8"/>
         <v>522</v>
@@ -14453,7 +14461,7 @@
       <c r="H523" s="1"/>
       <c r="J523" s="1"/>
     </row>
-    <row r="524" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A524" s="2">
         <f t="shared" si="8"/>
         <v>523</v>
@@ -14476,7 +14484,7 @@
       <c r="H524" s="1"/>
       <c r="J524" s="1"/>
     </row>
-    <row r="525" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A525" s="2">
         <f t="shared" si="8"/>
         <v>524</v>
@@ -14499,7 +14507,7 @@
       <c r="H525" s="1"/>
       <c r="J525" s="1"/>
     </row>
-    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A526" s="2">
         <f t="shared" si="8"/>
         <v>525</v>
@@ -14522,7 +14530,7 @@
       <c r="H526" s="1"/>
       <c r="J526" s="1"/>
     </row>
-    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A527" s="2">
         <f t="shared" si="8"/>
         <v>526</v>
@@ -14545,7 +14553,7 @@
       <c r="H527" s="1"/>
       <c r="J527" s="1"/>
     </row>
-    <row r="528" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A528" s="2">
         <f t="shared" si="8"/>
         <v>527</v>
@@ -14568,7 +14576,7 @@
       <c r="H528" s="1"/>
       <c r="J528" s="1"/>
     </row>
-    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A529" s="2">
         <f t="shared" si="8"/>
         <v>528</v>
@@ -14591,7 +14599,7 @@
       <c r="H529" s="1"/>
       <c r="J529" s="1"/>
     </row>
-    <row r="530" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A530" s="2">
         <f t="shared" si="8"/>
         <v>529</v>
@@ -14614,7 +14622,7 @@
       <c r="H530" s="1"/>
       <c r="J530" s="1"/>
     </row>
-    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A531" s="2">
         <f t="shared" si="8"/>
         <v>530</v>
@@ -14637,7 +14645,7 @@
       <c r="H531" s="1"/>
       <c r="J531" s="1"/>
     </row>
-    <row r="532" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A532" s="2">
         <f t="shared" si="8"/>
         <v>531</v>
@@ -14660,7 +14668,7 @@
       <c r="H532" s="1"/>
       <c r="J532" s="1"/>
     </row>
-    <row r="533" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A533" s="2">
         <f t="shared" si="8"/>
         <v>532</v>
@@ -14683,7 +14691,7 @@
       <c r="H533" s="1"/>
       <c r="J533" s="1"/>
     </row>
-    <row r="534" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A534" s="2">
         <f t="shared" si="8"/>
         <v>533</v>
@@ -14706,7 +14714,7 @@
       <c r="H534" s="1"/>
       <c r="J534" s="1"/>
     </row>
-    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A535" s="2">
         <f t="shared" si="8"/>
         <v>534</v>
@@ -14729,7 +14737,7 @@
       <c r="H535" s="1"/>
       <c r="J535" s="1"/>
     </row>
-    <row r="536" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A536" s="2">
         <f t="shared" si="8"/>
         <v>535</v>
@@ -14752,7 +14760,7 @@
       <c r="H536" s="1"/>
       <c r="J536" s="1"/>
     </row>
-    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A537" s="2">
         <f t="shared" si="8"/>
         <v>536</v>
@@ -14775,7 +14783,7 @@
       <c r="H537" s="1"/>
       <c r="J537" s="1"/>
     </row>
-    <row r="538" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A538" s="2">
         <f t="shared" si="8"/>
         <v>537</v>
@@ -14798,7 +14806,7 @@
       <c r="H538" s="1"/>
       <c r="J538" s="1"/>
     </row>
-    <row r="539" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A539" s="2">
         <f t="shared" si="8"/>
         <v>538</v>
@@ -14821,7 +14829,7 @@
       <c r="H539" s="1"/>
       <c r="J539" s="1"/>
     </row>
-    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A540" s="2">
         <f t="shared" si="8"/>
         <v>539</v>
@@ -14844,7 +14852,7 @@
       <c r="H540" s="1"/>
       <c r="J540" s="1"/>
     </row>
-    <row r="541" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A541" s="2">
         <f t="shared" si="8"/>
         <v>540</v>
@@ -14867,7 +14875,7 @@
       <c r="H541" s="1"/>
       <c r="J541" s="1"/>
     </row>
-    <row r="542" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A542" s="2">
         <f t="shared" si="8"/>
         <v>541</v>
@@ -14890,7 +14898,7 @@
       <c r="H542" s="1"/>
       <c r="J542" s="1"/>
     </row>
-    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A543" s="2">
         <f t="shared" si="8"/>
         <v>542</v>
@@ -14913,7 +14921,7 @@
       <c r="H543" s="1"/>
       <c r="J543" s="1"/>
     </row>
-    <row r="544" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A544" s="2">
         <f t="shared" si="8"/>
         <v>543</v>
@@ -14936,7 +14944,7 @@
       <c r="H544" s="1"/>
       <c r="J544" s="1"/>
     </row>
-    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A545" s="2">
         <f t="shared" si="8"/>
         <v>544</v>
@@ -14959,7 +14967,7 @@
       <c r="H545" s="1"/>
       <c r="J545" s="1"/>
     </row>
-    <row r="546" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A546" s="2">
         <f t="shared" si="8"/>
         <v>545</v>
@@ -14982,7 +14990,7 @@
       <c r="H546" s="1"/>
       <c r="J546" s="1"/>
     </row>
-    <row r="547" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A547" s="2">
         <f t="shared" si="8"/>
         <v>546</v>
@@ -15005,7 +15013,7 @@
       <c r="H547" s="1"/>
       <c r="J547" s="1"/>
     </row>
-    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A548" s="2">
         <f t="shared" si="8"/>
         <v>547</v>
@@ -15028,7 +15036,7 @@
       <c r="H548" s="1"/>
       <c r="J548" s="1"/>
     </row>
-    <row r="549" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A549" s="2">
         <f t="shared" si="8"/>
         <v>548</v>
@@ -15051,7 +15059,7 @@
       <c r="H549" s="1"/>
       <c r="J549" s="1"/>
     </row>
-    <row r="550" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A550" s="2">
         <f t="shared" si="8"/>
         <v>549</v>
@@ -15074,7 +15082,7 @@
       <c r="H550" s="1"/>
       <c r="J550" s="1"/>
     </row>
-    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A551" s="2">
         <f t="shared" si="8"/>
         <v>550</v>
@@ -15097,7 +15105,7 @@
       <c r="H551" s="1"/>
       <c r="J551" s="1"/>
     </row>
-    <row r="552" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A552" s="2">
         <f t="shared" si="8"/>
         <v>551</v>
@@ -15120,7 +15128,7 @@
       <c r="H552" s="1"/>
       <c r="J552" s="1"/>
     </row>
-    <row r="553" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A553" s="2">
         <f t="shared" si="8"/>
         <v>552</v>
@@ -15143,7 +15151,7 @@
       <c r="H553" s="1"/>
       <c r="J553" s="1"/>
     </row>
-    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A554" s="2">
         <f t="shared" si="8"/>
         <v>553</v>
@@ -15166,7 +15174,7 @@
       <c r="H554" s="1"/>
       <c r="J554" s="1"/>
     </row>
-    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A555" s="2">
         <f t="shared" si="8"/>
         <v>554</v>
@@ -15189,7 +15197,7 @@
       <c r="H555" s="1"/>
       <c r="J555" s="1"/>
     </row>
-    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A556" s="2">
         <f t="shared" si="8"/>
         <v>555</v>
@@ -15212,7 +15220,7 @@
       <c r="H556" s="1"/>
       <c r="J556" s="1"/>
     </row>
-    <row r="557" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A557" s="2">
         <f t="shared" si="8"/>
         <v>556</v>
@@ -15235,7 +15243,7 @@
       <c r="H557" s="1"/>
       <c r="J557" s="1"/>
     </row>
-    <row r="558" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A558" s="2">
         <f t="shared" si="8"/>
         <v>557</v>
@@ -15258,7 +15266,7 @@
       <c r="H558" s="1"/>
       <c r="J558" s="1"/>
     </row>
-    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A559" s="2">
         <f t="shared" si="8"/>
         <v>558</v>
@@ -15281,7 +15289,7 @@
       <c r="H559" s="1"/>
       <c r="J559" s="1"/>
     </row>
-    <row r="560" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A560" s="2">
         <f t="shared" si="8"/>
         <v>559</v>
@@ -15304,7 +15312,7 @@
       <c r="H560" s="1"/>
       <c r="J560" s="1"/>
     </row>
-    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A561" s="2">
         <f t="shared" si="8"/>
         <v>560</v>
@@ -15327,7 +15335,7 @@
       <c r="H561" s="1"/>
       <c r="J561" s="1"/>
     </row>
-    <row r="562" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A562" s="2">
         <f t="shared" si="8"/>
         <v>561</v>
@@ -15350,7 +15358,7 @@
       <c r="H562" s="1"/>
       <c r="J562" s="1"/>
     </row>
-    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A563" s="2">
         <f t="shared" si="8"/>
         <v>562</v>
@@ -15373,7 +15381,7 @@
       <c r="H563" s="1"/>
       <c r="J563" s="1"/>
     </row>
-    <row r="564" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A564" s="2">
         <f t="shared" si="8"/>
         <v>563</v>
@@ -15396,7 +15404,7 @@
       <c r="H564" s="1"/>
       <c r="J564" s="1"/>
     </row>
-    <row r="565" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A565" s="2">
         <f t="shared" si="8"/>
         <v>564</v>
@@ -15419,7 +15427,7 @@
       <c r="H565" s="1"/>
       <c r="J565" s="1"/>
     </row>
-    <row r="566" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A566" s="2">
         <f t="shared" si="8"/>
         <v>565</v>
@@ -15442,7 +15450,7 @@
       <c r="H566" s="1"/>
       <c r="J566" s="1"/>
     </row>
-    <row r="567" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A567" s="2">
         <f t="shared" si="8"/>
         <v>566</v>
@@ -15465,7 +15473,7 @@
       <c r="H567" s="1"/>
       <c r="J567" s="1"/>
     </row>
-    <row r="568" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A568" s="2">
         <f t="shared" si="8"/>
         <v>567</v>
@@ -15488,7 +15496,7 @@
       <c r="H568" s="1"/>
       <c r="J568" s="1"/>
     </row>
-    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A569" s="2">
         <f t="shared" si="8"/>
         <v>568</v>
@@ -15511,7 +15519,7 @@
       <c r="H569" s="1"/>
       <c r="J569" s="1"/>
     </row>
-    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A570" s="2">
         <f t="shared" si="8"/>
         <v>569</v>
@@ -15534,7 +15542,7 @@
       <c r="H570" s="1"/>
       <c r="J570" s="1"/>
     </row>
-    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A571" s="2">
         <f t="shared" si="8"/>
         <v>570</v>
@@ -15557,7 +15565,7 @@
       <c r="H571" s="1"/>
       <c r="J571" s="1"/>
     </row>
-    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A572" s="2">
         <f t="shared" si="8"/>
         <v>571</v>
@@ -15580,7 +15588,7 @@
       <c r="H572" s="1"/>
       <c r="J572" s="1"/>
     </row>
-    <row r="573" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A573" s="2">
         <f t="shared" si="8"/>
         <v>572</v>
@@ -15603,7 +15611,7 @@
       <c r="H573" s="1"/>
       <c r="J573" s="1"/>
     </row>
-    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A574" s="2">
         <f t="shared" si="8"/>
         <v>573</v>
@@ -15626,7 +15634,7 @@
       <c r="H574" s="1"/>
       <c r="J574" s="1"/>
     </row>
-    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A575" s="2">
         <f t="shared" si="8"/>
         <v>574</v>
@@ -15649,7 +15657,7 @@
       <c r="H575" s="1"/>
       <c r="J575" s="1"/>
     </row>
-    <row r="576" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A576" s="2">
         <f t="shared" si="8"/>
         <v>575</v>
@@ -15672,7 +15680,7 @@
       <c r="H576" s="1"/>
       <c r="J576" s="1"/>
     </row>
-    <row r="577" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A577" s="2">
         <f t="shared" si="8"/>
         <v>576</v>
@@ -15695,7 +15703,7 @@
       <c r="H577" s="1"/>
       <c r="J577" s="1"/>
     </row>
-    <row r="578" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A578" s="2">
         <f t="shared" si="8"/>
         <v>577</v>
@@ -15718,7 +15726,7 @@
       <c r="H578" s="1"/>
       <c r="J578" s="1"/>
     </row>
-    <row r="579" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A579" s="2">
         <f t="shared" si="8"/>
         <v>578</v>
@@ -15741,7 +15749,7 @@
       <c r="H579" s="1"/>
       <c r="J579" s="1"/>
     </row>
-    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A580" s="2">
         <f t="shared" ref="A580:A643" si="9">A579+1</f>
         <v>579</v>
@@ -15764,7 +15772,7 @@
       <c r="H580" s="1"/>
       <c r="J580" s="1"/>
     </row>
-    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A581" s="2">
         <f t="shared" si="9"/>
         <v>580</v>
@@ -15787,7 +15795,7 @@
       <c r="H581" s="1"/>
       <c r="J581" s="1"/>
     </row>
-    <row r="582" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A582" s="2">
         <f t="shared" si="9"/>
         <v>581</v>
@@ -15810,7 +15818,7 @@
       <c r="H582" s="1"/>
       <c r="J582" s="1"/>
     </row>
-    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A583" s="2">
         <f t="shared" si="9"/>
         <v>582</v>
@@ -15833,7 +15841,7 @@
       <c r="H583" s="1"/>
       <c r="J583" s="1"/>
     </row>
-    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A584" s="2">
         <f t="shared" si="9"/>
         <v>583</v>
@@ -15856,7 +15864,7 @@
       <c r="H584" s="1"/>
       <c r="J584" s="1"/>
     </row>
-    <row r="585" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A585" s="2">
         <f t="shared" si="9"/>
         <v>584</v>
@@ -15879,7 +15887,7 @@
       <c r="H585" s="1"/>
       <c r="J585" s="1"/>
     </row>
-    <row r="586" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A586" s="2">
         <f t="shared" si="9"/>
         <v>585</v>
@@ -15902,7 +15910,7 @@
       <c r="H586" s="1"/>
       <c r="J586" s="1"/>
     </row>
-    <row r="587" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A587" s="2">
         <f t="shared" si="9"/>
         <v>586</v>
@@ -15925,7 +15933,7 @@
       <c r="H587" s="1"/>
       <c r="J587" s="1"/>
     </row>
-    <row r="588" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A588" s="2">
         <f t="shared" si="9"/>
         <v>587</v>
@@ -15948,7 +15956,7 @@
       <c r="H588" s="1"/>
       <c r="J588" s="1"/>
     </row>
-    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A589" s="2">
         <f t="shared" si="9"/>
         <v>588</v>
@@ -15971,7 +15979,7 @@
       <c r="H589" s="1"/>
       <c r="J589" s="1"/>
     </row>
-    <row r="590" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A590" s="2">
         <f t="shared" si="9"/>
         <v>589</v>
@@ -15994,7 +16002,7 @@
       <c r="H590" s="1"/>
       <c r="J590" s="1"/>
     </row>
-    <row r="591" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A591" s="2">
         <f t="shared" si="9"/>
         <v>590</v>
@@ -16017,7 +16025,7 @@
       <c r="H591" s="1"/>
       <c r="J591" s="1"/>
     </row>
-    <row r="592" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A592" s="2">
         <f t="shared" si="9"/>
         <v>591</v>
@@ -16040,7 +16048,7 @@
       <c r="H592" s="1"/>
       <c r="J592" s="1"/>
     </row>
-    <row r="593" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A593" s="2">
         <f t="shared" si="9"/>
         <v>592</v>
@@ -16063,7 +16071,7 @@
       <c r="H593" s="1"/>
       <c r="J593" s="1"/>
     </row>
-    <row r="594" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A594" s="2">
         <f t="shared" si="9"/>
         <v>593</v>
@@ -16086,7 +16094,7 @@
       <c r="H594" s="1"/>
       <c r="J594" s="1"/>
     </row>
-    <row r="595" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A595" s="2">
         <f t="shared" si="9"/>
         <v>594</v>
@@ -16109,7 +16117,7 @@
       <c r="H595" s="1"/>
       <c r="J595" s="1"/>
     </row>
-    <row r="596" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A596" s="2">
         <f t="shared" si="9"/>
         <v>595</v>
@@ -16132,7 +16140,7 @@
       <c r="H596" s="1"/>
       <c r="J596" s="1"/>
     </row>
-    <row r="597" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A597" s="2">
         <f t="shared" si="9"/>
         <v>596</v>
@@ -16155,7 +16163,7 @@
       <c r="H597" s="1"/>
       <c r="J597" s="1"/>
     </row>
-    <row r="598" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A598" s="2">
         <f t="shared" si="9"/>
         <v>597</v>
@@ -16178,7 +16186,7 @@
       <c r="H598" s="1"/>
       <c r="J598" s="1"/>
     </row>
-    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A599" s="2">
         <f t="shared" si="9"/>
         <v>598</v>
@@ -16201,7 +16209,7 @@
       <c r="H599" s="1"/>
       <c r="J599" s="1"/>
     </row>
-    <row r="600" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A600" s="2">
         <f t="shared" si="9"/>
         <v>599</v>
@@ -16224,7 +16232,7 @@
       <c r="H600" s="1"/>
       <c r="J600" s="1"/>
     </row>
-    <row r="601" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A601" s="2">
         <f t="shared" si="9"/>
         <v>600</v>
@@ -16247,7 +16255,7 @@
       <c r="H601" s="1"/>
       <c r="J601" s="1"/>
     </row>
-    <row r="602" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A602" s="2">
         <f t="shared" si="9"/>
         <v>601</v>
@@ -16270,7 +16278,7 @@
       <c r="H602" s="1"/>
       <c r="J602" s="1"/>
     </row>
-    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A603" s="2">
         <f t="shared" si="9"/>
         <v>602</v>
@@ -16293,7 +16301,7 @@
       <c r="H603" s="1"/>
       <c r="J603" s="1"/>
     </row>
-    <row r="604" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A604" s="2">
         <f t="shared" si="9"/>
         <v>603</v>
@@ -16316,7 +16324,7 @@
       <c r="H604" s="1"/>
       <c r="J604" s="1"/>
     </row>
-    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A605" s="2">
         <f t="shared" si="9"/>
         <v>604</v>
@@ -16339,7 +16347,7 @@
       <c r="H605" s="1"/>
       <c r="J605" s="1"/>
     </row>
-    <row r="606" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A606" s="2">
         <f t="shared" si="9"/>
         <v>605</v>
@@ -16362,7 +16370,7 @@
       <c r="H606" s="1"/>
       <c r="J606" s="1"/>
     </row>
-    <row r="607" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A607" s="2">
         <f t="shared" si="9"/>
         <v>606</v>
@@ -16385,7 +16393,7 @@
       <c r="H607" s="1"/>
       <c r="J607" s="1"/>
     </row>
-    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A608" s="2">
         <f t="shared" si="9"/>
         <v>607</v>
@@ -16408,7 +16416,7 @@
       <c r="H608" s="1"/>
       <c r="J608" s="1"/>
     </row>
-    <row r="609" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A609" s="2">
         <f t="shared" si="9"/>
         <v>608</v>
@@ -16431,7 +16439,7 @@
       <c r="H609" s="1"/>
       <c r="J609" s="1"/>
     </row>
-    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A610" s="2">
         <f t="shared" si="9"/>
         <v>609</v>
@@ -16454,7 +16462,7 @@
       <c r="H610" s="1"/>
       <c r="J610" s="1"/>
     </row>
-    <row r="611" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A611" s="2">
         <f t="shared" si="9"/>
         <v>610</v>
@@ -16477,7 +16485,7 @@
       <c r="H611" s="1"/>
       <c r="J611" s="1"/>
     </row>
-    <row r="612" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A612" s="2">
         <f t="shared" si="9"/>
         <v>611</v>
@@ -16500,7 +16508,7 @@
       <c r="H612" s="1"/>
       <c r="J612" s="1"/>
     </row>
-    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A613" s="2">
         <f t="shared" si="9"/>
         <v>612</v>
@@ -16523,7 +16531,7 @@
       <c r="H613" s="1"/>
       <c r="J613" s="1"/>
     </row>
-    <row r="614" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A614" s="2">
         <f t="shared" si="9"/>
         <v>613</v>
@@ -16546,7 +16554,7 @@
       <c r="H614" s="1"/>
       <c r="J614" s="1"/>
     </row>
-    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A615" s="2">
         <f t="shared" si="9"/>
         <v>614</v>
@@ -16569,7 +16577,7 @@
       <c r="H615" s="1"/>
       <c r="J615" s="1"/>
     </row>
-    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A616" s="2">
         <f t="shared" si="9"/>
         <v>615</v>
@@ -16592,7 +16600,7 @@
       <c r="H616" s="1"/>
       <c r="J616" s="1"/>
     </row>
-    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A617" s="2">
         <f t="shared" si="9"/>
         <v>616</v>
@@ -16615,7 +16623,7 @@
       <c r="H617" s="1"/>
       <c r="J617" s="1"/>
     </row>
-    <row r="618" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A618" s="2">
         <f t="shared" si="9"/>
         <v>617</v>
@@ -16638,7 +16646,7 @@
       <c r="H618" s="1"/>
       <c r="J618" s="1"/>
     </row>
-    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A619" s="2">
         <f t="shared" si="9"/>
         <v>618</v>
@@ -16661,7 +16669,7 @@
       <c r="H619" s="1"/>
       <c r="J619" s="1"/>
     </row>
-    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A620" s="2">
         <f t="shared" si="9"/>
         <v>619</v>
@@ -16684,7 +16692,7 @@
       <c r="H620" s="1"/>
       <c r="J620" s="1"/>
     </row>
-    <row r="621" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A621" s="2">
         <f t="shared" si="9"/>
         <v>620</v>
@@ -16707,7 +16715,7 @@
       <c r="H621" s="1"/>
       <c r="J621" s="1"/>
     </row>
-    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A622" s="2">
         <f t="shared" si="9"/>
         <v>621</v>
@@ -16730,7 +16738,7 @@
       <c r="H622" s="1"/>
       <c r="J622" s="1"/>
     </row>
-    <row r="623" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A623" s="2">
         <f t="shared" si="9"/>
         <v>622</v>
@@ -16753,7 +16761,7 @@
       <c r="H623" s="1"/>
       <c r="J623" s="1"/>
     </row>
-    <row r="624" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A624" s="2">
         <f t="shared" si="9"/>
         <v>623</v>
@@ -16776,7 +16784,7 @@
       <c r="H624" s="1"/>
       <c r="J624" s="1"/>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A625" s="2">
         <f t="shared" si="9"/>
         <v>624</v>
@@ -16799,7 +16807,7 @@
       <c r="H625" s="1"/>
       <c r="J625" s="1"/>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A626" s="2">
         <f t="shared" si="9"/>
         <v>625</v>
@@ -16822,7 +16830,7 @@
       <c r="H626" s="1"/>
       <c r="J626" s="1"/>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A627" s="2">
         <f t="shared" si="9"/>
         <v>626</v>
@@ -16845,7 +16853,7 @@
       <c r="H627" s="1"/>
       <c r="J627" s="1"/>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A628" s="2">
         <f t="shared" si="9"/>
         <v>627</v>
@@ -16868,7 +16876,7 @@
       <c r="H628" s="1"/>
       <c r="J628" s="1"/>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A629" s="2">
         <f t="shared" si="9"/>
         <v>628</v>
@@ -16891,7 +16899,7 @@
       <c r="H629" s="1"/>
       <c r="J629" s="1"/>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A630" s="2">
         <f t="shared" si="9"/>
         <v>629</v>
@@ -16914,7 +16922,7 @@
       <c r="H630" s="1"/>
       <c r="J630" s="1"/>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A631" s="2">
         <f t="shared" si="9"/>
         <v>630</v>
@@ -16937,7 +16945,7 @@
       <c r="H631" s="1"/>
       <c r="J631" s="1"/>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A632" s="2">
         <f t="shared" si="9"/>
         <v>631</v>
@@ -16960,7 +16968,7 @@
       <c r="H632" s="1"/>
       <c r="J632" s="1"/>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A633" s="2">
         <f t="shared" si="9"/>
         <v>632</v>
@@ -16983,7 +16991,7 @@
       <c r="H633" s="1"/>
       <c r="J633" s="1"/>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A634" s="2">
         <f t="shared" si="9"/>
         <v>633</v>
@@ -17006,7 +17014,7 @@
       <c r="H634" s="1"/>
       <c r="J634" s="1"/>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A635" s="2">
         <f t="shared" si="9"/>
         <v>634</v>
@@ -17029,7 +17037,7 @@
       <c r="H635" s="1"/>
       <c r="J635" s="1"/>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A636" s="2">
         <f t="shared" si="9"/>
         <v>635</v>
@@ -17052,7 +17060,7 @@
       <c r="H636" s="1"/>
       <c r="J636" s="1"/>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A637" s="2">
         <f t="shared" si="9"/>
         <v>636</v>
@@ -17075,7 +17083,7 @@
       <c r="H637" s="1"/>
       <c r="J637" s="1"/>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A638" s="2">
         <f t="shared" si="9"/>
         <v>637</v>
@@ -17098,7 +17106,7 @@
       <c r="H638" s="1"/>
       <c r="J638" s="1"/>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A639" s="2">
         <f t="shared" si="9"/>
         <v>638</v>
@@ -17121,7 +17129,7 @@
       <c r="H639" s="1"/>
       <c r="J639" s="1"/>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A640" s="2">
         <f t="shared" si="9"/>
         <v>639</v>
@@ -17144,7 +17152,7 @@
       <c r="H640" s="1"/>
       <c r="J640" s="1"/>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A641" s="2">
         <f t="shared" si="9"/>
         <v>640</v>
@@ -17167,7 +17175,7 @@
       <c r="H641" s="1"/>
       <c r="J641" s="1"/>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A642" s="2">
         <f t="shared" si="9"/>
         <v>641</v>
@@ -17190,7 +17198,7 @@
       <c r="H642" s="1"/>
       <c r="J642" s="1"/>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A643" s="2">
         <f t="shared" si="9"/>
         <v>642</v>
@@ -17213,7 +17221,7 @@
       <c r="H643" s="1"/>
       <c r="J643" s="1"/>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A644" s="2">
         <f t="shared" ref="A644:A679" si="10">A643+1</f>
         <v>643</v>
@@ -17236,7 +17244,7 @@
       <c r="H644" s="1"/>
       <c r="J644" s="1"/>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A645" s="2">
         <f t="shared" si="10"/>
         <v>644</v>
@@ -17259,7 +17267,7 @@
       <c r="H645" s="1"/>
       <c r="J645" s="1"/>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A646" s="2">
         <f t="shared" si="10"/>
         <v>645</v>
@@ -17282,7 +17290,7 @@
       <c r="H646" s="1"/>
       <c r="J646" s="1"/>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A647" s="2">
         <f t="shared" si="10"/>
         <v>646</v>
@@ -17305,7 +17313,7 @@
       <c r="H647" s="1"/>
       <c r="J647" s="1"/>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A648" s="2">
         <f t="shared" si="10"/>
         <v>647</v>
@@ -17328,7 +17336,7 @@
       <c r="H648" s="1"/>
       <c r="J648" s="1"/>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A649" s="2">
         <f t="shared" si="10"/>
         <v>648</v>
@@ -17351,7 +17359,7 @@
       <c r="H649" s="1"/>
       <c r="J649" s="1"/>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A650" s="2">
         <f t="shared" si="10"/>
         <v>649</v>
@@ -17374,7 +17382,7 @@
       <c r="H650" s="1"/>
       <c r="J650" s="1"/>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A651" s="2">
         <f t="shared" si="10"/>
         <v>650</v>
@@ -17397,7 +17405,7 @@
       <c r="H651" s="1"/>
       <c r="J651" s="1"/>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A652" s="2">
         <f t="shared" si="10"/>
         <v>651</v>
@@ -17420,7 +17428,7 @@
       <c r="H652" s="1"/>
       <c r="J652" s="1"/>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A653" s="2">
         <f t="shared" si="10"/>
         <v>652</v>
@@ -17443,7 +17451,7 @@
       <c r="H653" s="1"/>
       <c r="J653" s="1"/>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A654" s="2">
         <f t="shared" si="10"/>
         <v>653</v>
@@ -17466,7 +17474,7 @@
       <c r="H654" s="1"/>
       <c r="J654" s="1"/>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A655" s="2">
         <f t="shared" si="10"/>
         <v>654</v>
@@ -17489,7 +17497,7 @@
       <c r="H655" s="1"/>
       <c r="J655" s="1"/>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A656" s="2">
         <f t="shared" si="10"/>
         <v>655</v>
@@ -17512,7 +17520,7 @@
       <c r="H656" s="1"/>
       <c r="J656" s="1"/>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A657" s="2">
         <f t="shared" si="10"/>
         <v>656</v>
@@ -17535,7 +17543,7 @@
       <c r="H657" s="1"/>
       <c r="J657" s="1"/>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A658" s="2">
         <f t="shared" si="10"/>
         <v>657</v>
@@ -17558,7 +17566,7 @@
       <c r="H658" s="1"/>
       <c r="J658" s="1"/>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A659" s="2">
         <f t="shared" si="10"/>
         <v>658</v>
@@ -17581,7 +17589,7 @@
       <c r="H659" s="1"/>
       <c r="J659" s="1"/>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A660" s="2">
         <f t="shared" si="10"/>
         <v>659</v>
@@ -17604,7 +17612,7 @@
       <c r="H660" s="1"/>
       <c r="J660" s="1"/>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A661" s="2">
         <f t="shared" si="10"/>
         <v>660</v>
@@ -17627,7 +17635,7 @@
       <c r="H661" s="1"/>
       <c r="J661" s="1"/>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A662" s="2">
         <f t="shared" si="10"/>
         <v>661</v>
@@ -17650,7 +17658,7 @@
       <c r="H662" s="1"/>
       <c r="J662" s="1"/>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A663" s="2">
         <f t="shared" si="10"/>
         <v>662</v>
@@ -17673,7 +17681,7 @@
       <c r="H663" s="1"/>
       <c r="J663" s="1"/>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A664" s="2">
         <f t="shared" si="10"/>
         <v>663</v>
@@ -17696,7 +17704,7 @@
       <c r="H664" s="1"/>
       <c r="J664" s="1"/>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A665" s="2">
         <f t="shared" si="10"/>
         <v>664</v>
@@ -17719,7 +17727,7 @@
       <c r="H665" s="1"/>
       <c r="J665" s="1"/>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A666" s="2">
         <f t="shared" si="10"/>
         <v>665</v>
@@ -17742,7 +17750,7 @@
       <c r="H666" s="1"/>
       <c r="J666" s="1"/>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A667" s="2">
         <f t="shared" si="10"/>
         <v>666</v>
@@ -17765,7 +17773,7 @@
       <c r="H667" s="1"/>
       <c r="J667" s="1"/>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A668" s="2">
         <f t="shared" si="10"/>
         <v>667</v>
@@ -17788,7 +17796,7 @@
       <c r="H668" s="1"/>
       <c r="J668" s="1"/>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A669" s="2">
         <f t="shared" si="10"/>
         <v>668</v>
@@ -17811,7 +17819,7 @@
       <c r="H669" s="1"/>
       <c r="J669" s="1"/>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A670" s="2">
         <f t="shared" si="10"/>
         <v>669</v>
@@ -17834,7 +17842,7 @@
       <c r="H670" s="1"/>
       <c r="J670" s="1"/>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A671" s="2">
         <f t="shared" si="10"/>
         <v>670</v>
@@ -17857,7 +17865,7 @@
       <c r="H671" s="1"/>
       <c r="J671" s="1"/>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A672" s="2">
         <f t="shared" si="10"/>
         <v>671</v>
@@ -17880,7 +17888,7 @@
       <c r="H672" s="1"/>
       <c r="J672" s="1"/>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A673" s="2">
         <f t="shared" si="10"/>
         <v>672</v>
@@ -17903,7 +17911,7 @@
       <c r="H673" s="1"/>
       <c r="J673" s="1"/>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A674" s="2">
         <f t="shared" si="10"/>
         <v>673</v>
@@ -17924,7 +17932,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A675" s="2">
         <f t="shared" si="10"/>
         <v>674</v>
@@ -17945,7 +17953,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A676" s="2">
         <f t="shared" si="10"/>
         <v>675</v>
@@ -17966,7 +17974,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A677" s="2">
         <f t="shared" si="10"/>
         <v>676</v>
@@ -17987,7 +17995,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A678" s="2">
         <f t="shared" si="10"/>
         <v>677</v>
@@ -18008,7 +18016,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A679" s="2">
         <f t="shared" si="10"/>
         <v>678</v>
@@ -18030,13 +18038,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F679" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="LAMD"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F679" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F5">
     <sortCondition ref="B3:B5"/>
   </sortState>
@@ -18052,225 +18054,225 @@
       <selection sqref="A1:D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G54" s="1"/>
       <c r="I54" s="1"/>
     </row>
